--- a/StarProject/wwwroot/exceltemps/TicketStockTemplate.xlsx
+++ b/StarProject/wwwroot/exceltemps/TicketStockTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ApolloObs\StarProject\wwwroot\exceltemps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jamie\Desktop\StarProject\sheevivian\StarProject\StarProject\wwwroot\exceltemps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584B11E0-E9B1-4332-A952-F1E2DB812C9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE735A08-37D8-442C-A421-CB30E965CBFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935" xr2:uid="{C0BC6943-57E5-4CA5-9929-59B7643BA4FF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C0BC6943-57E5-4CA5-9929-59B7643BA4FF}"/>
   </bookViews>
   <sheets>
     <sheet name="票券庫存設定" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
             <charset val="136"/>
           </rPr>
           <t>範例欄位請勿刪除！
-日期格式請填寫yyyy/mm/dd</t>
+日期格式請依年月日yyyymmdd填寫8碼數字</t>
         </r>
       </text>
     </comment>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="35">
   <si>
     <t>範例欄位請勿刪除</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,38 +153,35 @@
     <t>免費入場</t>
   </si>
   <si>
-    <t>【特展】星銀島大冒險</t>
-  </si>
-  <si>
-    <t>【特展】水漾星球宇宙航海王</t>
-  </si>
-  <si>
-    <t>【特展】黑洞之謎</t>
-  </si>
-  <si>
-    <t>【星空劇院】名偵探柯南: 閃爍的太空船</t>
-  </si>
-  <si>
-    <t>【星空劇院】小琉球夏季星空</t>
-  </si>
-  <si>
-    <t>【立體劇院】太空新疆域</t>
-  </si>
-  <si>
-    <t>【優惠套票】一日暢遊</t>
-  </si>
-  <si>
-    <t>【優惠套票】雙人套組</t>
-  </si>
-  <si>
-    <t>【優惠套票】柯南迷精選</t>
-  </si>
-  <si>
-    <t>【優惠套票】特展組合</t>
-  </si>
-  <si>
     <t>種類代碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一日暢遊</t>
+  </si>
+  <si>
+    <t>雙人套組</t>
+  </si>
+  <si>
+    <t>柯南迷精選</t>
+  </si>
+  <si>
+    <t>特展組合</t>
+  </si>
+  <si>
+    <t>太空新疆域</t>
+  </si>
+  <si>
+    <t>名偵探柯南: 閃爍的太空船</t>
+  </si>
+  <si>
+    <t>小琉球夏季星空</t>
+  </si>
+  <si>
+    <t>星銀島大冒險</t>
+  </si>
+  <si>
+    <t>水漾星球宇宙航海王</t>
   </si>
 </sst>
 </file>
@@ -317,7 +314,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -346,9 +343,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -668,20 +662,20 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.36328125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
     <col min="5" max="6" width="9" style="7"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
@@ -692,12 +686,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="4">
         <v>201001</v>
       </c>
-      <c r="B2" s="10">
-        <v>46000</v>
+      <c r="B2" s="4">
+        <v>20250101</v>
       </c>
       <c r="C2" s="4">
         <v>500</v>
@@ -716,22 +710,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{319922BD-7374-435D-BE4B-7FE5AD750714}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A5" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="9.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -739,7 +733,7 @@
         <v>14</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>13</v>
@@ -748,7 +742,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="9">
         <v>201001</v>
       </c>
@@ -765,7 +759,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="9">
         <v>201002</v>
       </c>
@@ -782,7 +776,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="9">
         <v>201003</v>
       </c>
@@ -799,7 +793,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="9">
         <v>201004</v>
       </c>
@@ -816,7 +810,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="9">
         <v>202001</v>
       </c>
@@ -827,13 +821,13 @@
         <v>9</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="9">
         <v>202002</v>
       </c>
@@ -844,13 +838,13 @@
         <v>9</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="9">
         <v>202003</v>
       </c>
@@ -861,13 +855,13 @@
         <v>9</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="9">
         <v>202004</v>
       </c>
@@ -878,13 +872,13 @@
         <v>9</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="9">
         <v>202005</v>
       </c>
@@ -895,13 +889,13 @@
         <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="9">
         <v>202006</v>
       </c>
@@ -912,13 +906,13 @@
         <v>9</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="9">
         <v>202007</v>
       </c>
@@ -929,13 +923,13 @@
         <v>9</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="9">
         <v>202008</v>
       </c>
@@ -946,151 +940,151 @@
         <v>9</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="9">
-        <v>202009</v>
+        <v>203001</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="9">
-        <v>202010</v>
+        <v>203002</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="9">
-        <v>202011</v>
+        <v>203003</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="9">
-        <v>202012</v>
+        <v>203004</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="9">
-        <v>203001</v>
+        <v>204001</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="9">
-        <v>203002</v>
+        <v>204002</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="9">
-        <v>203003</v>
+        <v>204003</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="9">
-        <v>203004</v>
+        <v>204004</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="9">
-        <v>204001</v>
+        <v>204005</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>6</v>
@@ -1099,15 +1093,15 @@
         <v>5</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="9">
-        <v>204002</v>
+        <v>204006</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>6</v>
@@ -1116,15 +1110,15 @@
         <v>5</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="9">
-        <v>204003</v>
+        <v>204007</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>6</v>
@@ -1133,15 +1127,15 @@
         <v>5</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="9">
-        <v>204004</v>
+        <v>204008</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>6</v>
@@ -1150,214 +1144,146 @@
         <v>5</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="9">
-        <v>204005</v>
+        <v>205001</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="9">
-        <v>204006</v>
+        <v>205002</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="9">
-        <v>204007</v>
+        <v>205003</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="9">
-        <v>204008</v>
+        <v>205004</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="9">
-        <v>205001</v>
+        <v>206001</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="9">
-        <v>205002</v>
+        <v>206002</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="9">
-        <v>205003</v>
+        <v>206003</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="9">
-        <v>205004</v>
+        <v>206004</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="9">
-        <v>206001</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="9">
-        <v>206002</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="9">
-        <v>206003</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
-        <v>206004</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
